--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,13 +540,13 @@
         <v>1.415594</v>
       </c>
       <c r="H2">
-        <v>4.246782000000001</v>
+        <v>4.246782</v>
       </c>
       <c r="I2">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="J2">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.632885</v>
+        <v>3.21276</v>
       </c>
       <c r="N2">
-        <v>10.898655</v>
+        <v>9.63828</v>
       </c>
       <c r="O2">
-        <v>0.437284956640454</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="P2">
-        <v>0.4372849566404539</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="Q2">
-        <v>5.142690208690001</v>
+        <v>4.547963779439999</v>
       </c>
       <c r="R2">
-        <v>46.28421187821001</v>
+        <v>40.93167401496</v>
       </c>
       <c r="S2">
-        <v>0.4265263395297966</v>
+        <v>0.2979273800391665</v>
       </c>
       <c r="T2">
-        <v>0.4265263395297965</v>
+        <v>0.2979273800391665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,13 +602,13 @@
         <v>1.415594</v>
       </c>
       <c r="H3">
-        <v>4.246782000000001</v>
+        <v>4.246782</v>
       </c>
       <c r="I3">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="J3">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.654988</v>
       </c>
       <c r="O3">
-        <v>0.4676311822169809</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="P3">
-        <v>0.4676311822169809</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="Q3">
-        <v>5.499577027624</v>
+        <v>5.499577027623999</v>
       </c>
       <c r="R3">
         <v>49.496193248616</v>
       </c>
       <c r="S3">
-        <v>0.4561259503033818</v>
+        <v>0.3602655286241866</v>
       </c>
       <c r="T3">
-        <v>0.4561259503033818</v>
+        <v>0.3602655286241866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,75 +664,75 @@
         <v>1.415594</v>
       </c>
       <c r="H4">
-        <v>4.246782000000001</v>
+        <v>4.246782</v>
       </c>
       <c r="I4">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="J4">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.004340666666666667</v>
+        <v>1.031476333333333</v>
       </c>
       <c r="N4">
-        <v>0.013022</v>
+        <v>3.094429</v>
       </c>
       <c r="O4">
-        <v>0.0005224795816889323</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="P4">
-        <v>0.0005224795816889323</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="Q4">
-        <v>0.006144621689333335</v>
+        <v>1.460151708608667</v>
       </c>
       <c r="R4">
-        <v>0.05530159520400001</v>
+        <v>13.141365377478</v>
       </c>
       <c r="S4">
-        <v>0.0005096249026468871</v>
+        <v>0.09565141546906898</v>
       </c>
       <c r="T4">
-        <v>0.0005096249026468871</v>
+        <v>0.09565141546906898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.415594</v>
+        <v>0.2356576666666667</v>
       </c>
       <c r="H5">
-        <v>4.246782000000001</v>
+        <v>0.706973</v>
       </c>
       <c r="I5">
-        <v>0.9753967820130081</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="J5">
-        <v>0.9753967820130081</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7855989999999999</v>
+        <v>3.21276</v>
       </c>
       <c r="N5">
-        <v>2.356797</v>
+        <v>9.63828</v>
       </c>
       <c r="O5">
-        <v>0.09456138156087625</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="P5">
-        <v>0.09456138156087625</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="Q5">
-        <v>1.112089230806</v>
+        <v>0.7571115251599999</v>
       </c>
       <c r="R5">
-        <v>10.008803077254</v>
+        <v>6.814003726439999</v>
       </c>
       <c r="S5">
-        <v>0.09223486727718289</v>
+        <v>0.04959675670859245</v>
       </c>
       <c r="T5">
-        <v>0.09223486727718289</v>
+        <v>0.04959675670859245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03570666666666667</v>
+        <v>0.2356576666666667</v>
       </c>
       <c r="H6">
-        <v>0.10712</v>
+        <v>0.706973</v>
       </c>
       <c r="I6">
-        <v>0.02460321798699189</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="J6">
-        <v>0.0246032179869919</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.632885</v>
+        <v>3.884996</v>
       </c>
       <c r="N6">
-        <v>10.898655</v>
+        <v>11.654988</v>
       </c>
       <c r="O6">
-        <v>0.437284956640454</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="P6">
-        <v>0.4372849566404539</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="Q6">
-        <v>0.1297182137333334</v>
+        <v>0.9155290923693332</v>
       </c>
       <c r="R6">
-        <v>1.1674639236</v>
+        <v>8.239761831324</v>
       </c>
       <c r="S6">
-        <v>0.01075861711065739</v>
+        <v>0.05997435271413203</v>
       </c>
       <c r="T6">
-        <v>0.01075861711065739</v>
+        <v>0.05997435271413203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03570666666666667</v>
+        <v>0.2356576666666667</v>
       </c>
       <c r="H7">
-        <v>0.10712</v>
+        <v>0.706973</v>
       </c>
       <c r="I7">
-        <v>0.02460321798699189</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="J7">
-        <v>0.0246032179869919</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +865,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884996</v>
+        <v>1.031476333333333</v>
       </c>
       <c r="N7">
-        <v>11.654988</v>
+        <v>3.094429</v>
       </c>
       <c r="O7">
-        <v>0.4676311822169809</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="P7">
-        <v>0.4676311822169809</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="Q7">
-        <v>0.1387202571733333</v>
+        <v>0.2430753059352222</v>
       </c>
       <c r="R7">
-        <v>1.24848231456</v>
+        <v>2.187677753417</v>
       </c>
       <c r="S7">
-        <v>0.01150523191359911</v>
+        <v>0.01592334340411495</v>
       </c>
       <c r="T7">
-        <v>0.01150523191359911</v>
+        <v>0.01592334340411495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.03570666666666667</v>
+        <v>0.2265816666666667</v>
       </c>
       <c r="H8">
-        <v>0.10712</v>
+        <v>0.679745</v>
       </c>
       <c r="I8">
-        <v>0.02460321798699189</v>
+        <v>0.1206612230407385</v>
       </c>
       <c r="J8">
-        <v>0.0246032179869919</v>
+        <v>0.1206612230407385</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.004340666666666667</v>
+        <v>3.21276</v>
       </c>
       <c r="N8">
-        <v>0.013022</v>
+        <v>9.63828</v>
       </c>
       <c r="O8">
-        <v>0.0005224795816889323</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="P8">
-        <v>0.0005224795816889323</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="Q8">
-        <v>0.0001549907377777778</v>
+        <v>0.7279525154000001</v>
       </c>
       <c r="R8">
-        <v>0.00139491664</v>
+        <v>6.551572638600001</v>
       </c>
       <c r="S8">
-        <v>1.285467904204514E-05</v>
+        <v>0.04768661234429347</v>
       </c>
       <c r="T8">
-        <v>1.285467904204514E-05</v>
+        <v>0.04768661234429347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2265816666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.679745</v>
+      </c>
+      <c r="I9">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="J9">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.884996</v>
+      </c>
+      <c r="N9">
+        <v>11.654988</v>
+      </c>
+      <c r="O9">
+        <v>0.4779044122124365</v>
+      </c>
+      <c r="P9">
+        <v>0.4779044122124365</v>
+      </c>
+      <c r="Q9">
+        <v>0.8802688686733333</v>
+      </c>
+      <c r="R9">
+        <v>7.92241981806</v>
+      </c>
+      <c r="S9">
+        <v>0.0576645308741178</v>
+      </c>
+      <c r="T9">
+        <v>0.0576645308741178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03570666666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.10712</v>
-      </c>
-      <c r="I9">
-        <v>0.02460321798699189</v>
-      </c>
-      <c r="J9">
-        <v>0.0246032179869919</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.7855989999999999</v>
-      </c>
-      <c r="N9">
-        <v>2.356797</v>
-      </c>
-      <c r="O9">
-        <v>0.09456138156087625</v>
-      </c>
-      <c r="P9">
-        <v>0.09456138156087625</v>
-      </c>
-      <c r="Q9">
-        <v>0.02805112162666667</v>
-      </c>
-      <c r="R9">
-        <v>0.25246009464</v>
-      </c>
-      <c r="S9">
-        <v>0.002326514283693354</v>
-      </c>
-      <c r="T9">
-        <v>0.002326514283693354</v>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2265816666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.679745</v>
+      </c>
+      <c r="I10">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="J10">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.031476333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.094429</v>
+      </c>
+      <c r="O10">
+        <v>0.1268848386955111</v>
+      </c>
+      <c r="P10">
+        <v>0.1268848386955111</v>
+      </c>
+      <c r="Q10">
+        <v>0.2337136267338889</v>
+      </c>
+      <c r="R10">
+        <v>2.103422640605</v>
+      </c>
+      <c r="S10">
+        <v>0.01531007982232719</v>
+      </c>
+      <c r="T10">
+        <v>0.01531007982232719</v>
       </c>
     </row>
   </sheetData>
